--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DFE787-C296-0949-AA93-0D23F1848B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADE9FA-B0EB-4B42-8C41-B8F9B4887A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -175,7 +175,96 @@
     <t>have counters for both given string t and match key by key  for each substring</t>
   </si>
   <si>
-    <t>See comments</t>
+    <t>See comments in git repo code</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring </t>
+  </si>
+  <si>
+    <t>1. Initialize two pointers, `i` to 0 and `j` to the last index of the string.
+2. While `i` is less than or equal to `j`:
+    - If `s[i]` is not alphanumeric, increment `i`.
+    - Else if `s[j]` is not alphanumeric, decrement `j`.
+    - Else if `s[i]` lowercased is not equal to `s[j]` lowercased, return `False`.
+    - Otherwise, increment `i` and decrement `j`.
+3. Return `True` if no mismatches are found.
+This pseudocode captures the core logic of skipping non-alphanumeric characters and comparing the remaining characters in a case-insensitive manner.</t>
+  </si>
+  <si>
+    <t>Two pointers from either end. Use isalnum() and .lower()</t>
+  </si>
+  <si>
+    <t>Valid Palindrome </t>
+  </si>
+  <si>
+    <t>Brute 1:
+1. Initialize a defaultdict to store all indices for each value in `nums`.
+2. Populate the dictionary with indices for each value in `nums`.
+3. Initialize an empty set `result` to store unique triplets.
+4. For each pair of indices (i, j), calculate the negative sum of the corresponding numbers.
+5. If the negative sum exists in the dictionary, check all its indices to ensure none of them match i or j.
+6. If valid, add the sorted triplet to the result set.
+7. Convert each tuple in the result set to a list and return the list of these lists.
+Convert to elegant technically not two pointer but two for loop solution: Optimal somewhat and avoids TLE:
+1. Create a dictionary mapping each number in `nums` to its index.
+2. Initialize an empty list `result` to store unique triplets.
+3. For each pair of indices (i, j), calculate the negative sum of the corresponding numbers.
+4. Check if this negative sum exists in the dictionary and is not one of the indices.
+5. If valid, add the sorted triplet to the result list, ensuring uniqueness by converting to a set before returning.
+note that this works and doesn't fail the scenario where index value matches with i, because it store only the latest value in the array in numsd in that first for loop.
+so basically earlier duplicate value of triplet will not have its index in numsd and so trilplet will get added. remember that we take the same triplet in consideration multiple times when we have duplicates, so it is fine if it considers it a valid triplet only once in all those considerations</t>
+  </si>
+  <si>
+    <t>3Sum </t>
+  </si>
+  <si>
+    <t>1. Sort the list `nums`.
+2. Initialize an empty list `res` for results.
+3. Loop through each element `a` in `nums`:
+    - If `a` is positive, break the loop.
+    - Skip duplicate elements.
+4. For each `a`, use two pointers `l` and `r` to find triplets:
+    - Calculate the sum of `a`, `nums[l]`, and `nums[r]`.
+    - If the sum is zero, add the triplet to `res`, then adjust pointers and skip duplicates.
+    - If the sum is less than zero, increment `l`.
+    - If the sum is greater than zero, decrement `r`.
+5. Return `res`.</t>
+  </si>
+  <si>
+    <t>### Problem Context:
+You have a list of numbers, and you want to find all unique groups of three numbers that add up to zero. For example, in the list `[-1, 0, 1, 2, -1, -4]`, one such group is `[-1, 0, 1]` because their sum is `0`.
+### Solution Approach:
+1. **Sort the Numbers**:
+   First, we sort the list of numbers from smallest to largest. This helps us to efficiently find the groups of three numbers later.
+2. **Loop through Each Number**:
+   We go through each number in the list one by one. Let's call the current number `a`.
+3. **Skip Positive Numbers**:
+   If `a` is positive and we are still looking for groups that add up to zero, we can stop here. This is because, with all numbers sorted, if the current number is positive, any group of three numbers including this one will have a positive sum.
+4. **Avoid Duplicates**:
+   To avoid repeating the same group of numbers, we skip `a` if it's the same as the previous number. This ensures that we only consider unique groups.
+5. **Two Pointers Technique**:
+   For each number `a`, we use two pointers to find the other two numbers that together with `a` sum to zero. One pointer starts just after `a` (let's call it `l`), and the other starts at the end of the list (let's call it `r`).
+6. **Finding the Right Pair**:
+   - We calculate the sum of `a`, the number at `l`, and the number at `r`.
+   - If the sum is zero, we found a valid group! We add this group to our results list.
+   - To find more such groups, we move both pointers inward and skip any duplicates.
+   - If the sum is less than zero, we need a larger sum, so we move the left pointer (`l`) to the right.
+   - If the sum is greater than zero, we need a smaller sum, so we move the right pointer (`r`) to the left.
+7. **Continue Until All Numbers are Processed**:
+   We keep doing this until we've checked all possible groups of three numbers.
+8. **Return the Results**:
+   Finally, we return the list of all unique groups of three numbers that add up to zero.
+### Why This Works:
+Sorting the numbers and using the two pointers technique makes this approach efficient. By skipping duplicates and breaking early when necessary, we avoid unnecessary computations and ensure we only get unique groups.</t>
+  </si>
+  <si>
+    <t>Container With Most Water </t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -246,14 +335,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -264,6 +353,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:R216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,9 +708,10 @@
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +736,12 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -670,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -696,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +820,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -742,20 +846,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -763,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>13</v>
       </c>
@@ -771,37 +914,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>13</v>
       </c>
@@ -1303,6 +1446,10 @@
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{75EC1794-1CF8-A044-BE84-82BA083360E4}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://neetcode.io/problems/longest-repeating-substring-with-replacement" xr:uid="{7CDC05C3-3DD6-2347-BA74-D448997A6BB3}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://neetcode.io/problems/longest-repeating-substring-with-replacement" xr:uid="{BD0ADE33-122A-2F40-AFBE-775DC1B725F8}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://neetcode.io/problems/minimum-window-with-characters" xr:uid="{97D5BFB2-729E-2A47-A124-FAFD6A275168}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://neetcode.io/problems/is-palindrome" xr:uid="{925418BF-52B3-BE4B-9008-C6C08BEFA32E}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://neetcode.io/problems/three-integer-sum" xr:uid="{95337B91-D1A4-DA4E-8289-6C692D21A8AF}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADE9FA-B0EB-4B42-8C41-B8F9B4887A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D0D4E-CE27-DB44-8FA3-DD86247248F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -265,6 +265,57 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>HintsFromLeetcode</t>
+  </si>
+  <si>
+    <t>generate pairs of all the heights and calculate</t>
+  </si>
+  <si>
+    <t>Two pointers on either end, move the lower one of two always so its optimal</t>
+  </si>
+  <si>
+    <t>Imagine you have a row of vertical lines of different heights, like a series of sticks stuck in the ground. You want to find the two sticks that, when you pour water between them, can hold the most water.
+Here's how you can think about it:
+1. **Starting Points**: Begin by looking at the two outermost sticks. These form a container for water.
+2. **Measure Water**: Calculate how much water this container can hold. The amount of water is determined by the shorter of the two sticks (since water will spill over the shorter one) and the distance between them.
+3. **Move Inwards**: To try to find a bigger container:
+   - Move the stick that is shorter towards the center to see if the new pair of sticks can hold more water. This is because the height of the shorter stick is limiting the amount of water you can hold, so moving it might help you find a taller stick.
+4. **Repeat**: Keep measuring and moving the shorter stick until the two sticks meet in the middle. Each time you move a stick, you check if the new pair holds more water than the previous maximum.
+5. **Finish**: Once the sticks meet, you've checked all possible pairs and found the maximum amount of water that can be held.
+So, the big idea is to start with the widest container (the outermost sticks), measure the water, and then systematically narrow the container by moving the shorter stick inward, always keeping track of the maximum water amount found. This way, you efficiently find the best container without having to check every possible pair of sticks.
+just see the code:
+function maxArea(height):
+    i, j, max_volume = 0, len(height) - 1, 0
+    while i &lt; j:
+        max_volume = max(max_volume, min(height[i], height[j]) * (j - i))
+        if height[i] &lt; height[j]: i += 1 else: j -= 1
+    return max_volume</t>
+  </si>
+  <si>
+    <t>Ask GPT to explain pseudocode to a non-technical person, put that in idea column</t>
+  </si>
+  <si>
+    <t>function isValid(s):
+    stack = []
+    pairs = { '(': ')', '{': '}', '[': ']' }
+    for each bracket in s:
+        if bracket is an opening bracket:
+            stack.append(bracket)
+        else:
+            if stack is empty or bracket does not match top of stack:
+                return False
+    return stack is empty</t>
+  </si>
+  <si>
+    <t>Valid Parentheses </t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>The big idea is to use a stack (a list where you can only add or remove items from the top) to keep track of opening brackets. When you see a closing bracket, you check if it matches the last opened bracket. If everything matches correctly and nothing is left over, the brackets are valid.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,11 +758,11 @@
     <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,12 +787,15 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -764,11 +818,12 @@
         <v>13</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -790,11 +845,11 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -816,11 +871,11 @@
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -842,11 +897,11 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -866,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -888,63 +943,94 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>13</v>
       </c>
@@ -1450,6 +1536,7 @@
     <hyperlink ref="B6" r:id="rId5" display="https://neetcode.io/problems/is-palindrome" xr:uid="{925418BF-52B3-BE4B-9008-C6C08BEFA32E}"/>
     <hyperlink ref="B7" r:id="rId6" display="https://neetcode.io/problems/three-integer-sum" xr:uid="{95337B91-D1A4-DA4E-8289-6C692D21A8AF}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{1F3F5FA3-D42F-B94E-82B0-24F817D80EBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D0D4E-CE27-DB44-8FA3-DD86247248F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4499B-E5B5-E942-B443-848350B64227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -316,6 +316,33 @@
   </si>
   <si>
     <t>The big idea is to use a stack (a list where you can only add or remove items from the top) to keep track of opening brackets. When you see a closing bracket, you check if it matches the last opened bracket. If everything matches correctly and nothing is left over, the brackets are valid.</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>1. Initialize `start` to 0 and `end` to the last index of `nums`.
+2. Initialize `minv` to infinity to keep track of the minimum value.
+3. Enter a loop that continues while `start` is less than or equal to `end`.
+4. Calculate the middle index `mid`.
+5. Update `minv` with the minimum of `minv` and `nums[mid]`.
+6. If `nums[mid]` is greater than `nums[end]`, the minimum must be in the right half, so update `start` to `mid + 1`.
+7. Otherwise, the minimum is in the left half (including `mid`), so update `end` to `mid - 1`.
+8. Repeat steps 4-7 until the loop exits.
+9. Return `minv` as the minimum value in the array.</t>
+  </si>
+  <si>
+    <t>Imagine you have a line of numbered cards arranged in ascending order, but then you shuffle them by moving some cards from the end to the beginning. The challenge is to find the smallest number quickly.
+Here's how you do it efficiently:
+1. **Start with Two Pointers**: Place one pointer at the beginning of the line and one at the end.
+2. **Check the Middle**: Find the card in the middle of these two pointers.
+3. **Compare with End Card**: If this middle card is greater than the last card, it means the smallest card is somewhere to the right. If it's smaller, it means the smallest card is to the left or could be the middle card itself.
+4. **Adjust Pointers**: Based on this comparison, move the pointers closer to narrow down the range where the smallest card could be.
+5. **Repeat Until Found**: Keep repeating this process until you narrow it down to the smallest card.
+By repeatedly cutting the search area in half, you quickly zero in on the smallest card without having to look at each card individually. This method ensures you find the minimum efficiently.</t>
+  </si>
+  <si>
+    <t>Find Minimum In Rotated Sorted Array </t>
   </si>
 </sst>
 </file>
@@ -746,7 +773,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,7 +1025,22 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
@@ -1006,6 +1048,9 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -1537,6 +1582,7 @@
     <hyperlink ref="B7" r:id="rId6" display="https://neetcode.io/problems/three-integer-sum" xr:uid="{95337B91-D1A4-DA4E-8289-6C692D21A8AF}"/>
     <hyperlink ref="B8" r:id="rId7" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
     <hyperlink ref="B9" r:id="rId8" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{1F3F5FA3-D42F-B94E-82B0-24F817D80EBB}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://neetcode.io/problems/find-minimum-in-rotated-sorted-array" xr:uid="{C6EDED79-6D8E-8843-99F1-ECBA49349E03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4499B-E5B5-E942-B443-848350B64227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9349056-AC9C-1D41-BBA4-5DD15E8B3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>HintsFromLeetcode</t>
-  </si>
-  <si>
     <t>generate pairs of all the heights and calculate</t>
   </si>
   <si>
@@ -343,6 +340,74 @@
   </si>
   <si>
     <t>Find Minimum In Rotated Sorted Array </t>
+  </si>
+  <si>
+    <t>Search In Rotated Sorted Array </t>
+  </si>
+  <si>
+    <t>1. Initialize `l` to 0 and `r` to the last index of `nums`.
+2. While `l` is less than or equal to `r`:
+3.    Calculate `mid` as `(l + r) // 2`.
+4.    If `nums[mid]` is equal to `target`, return `mid`.
+5.    If the left half is sorted (`nums[l] &lt;= nums[mid]`):
+6.        If `target` is in the left half (`nums[l] &lt;= target &lt; nums[mid]`), set `r = mid - 1`.
+7.        Otherwise, set `l = mid + 1`.
+8.    Else (right half is sorted):
+9.        If `target` is in the right half (`nums[mid] &lt; target &lt;= nums[r]`), set `l = mid + 1`.
+10.       Otherwise, set `r = mid - 1`.
+11. Return -1 if the target is not found.</t>
+  </si>
+  <si>
+    <t>see neetcode video, representing roated array as graphh helps visualise</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def reverseList(head):
+        prev = None
+        while head:
+            nxt = head.next
+            head.next = prev
+            prev = head
+            head = nxt
+        return prev</t>
+  </si>
+  <si>
+    <t>initialize prev to None
+while head is not None:
+    store head.next in nxt
+    set head.next to prev
+    move prev to head
+    move head to nxt
+return prev</t>
+  </si>
+  <si>
+    <t>Reverse Linked List </t>
+  </si>
+  <si>
+    <t>Hints</t>
+  </si>
+  <si>
+    <t>For linked list problems, try to draw and visualise the solution</t>
+  </si>
+  <si>
+    <t>initialize head and temp to None
+while list1 or list2:
+    if list1 is None:
+        attach list2 to temp and return head
+    if list2 is None:
+        attach list1 to temp and return head
+    if list1.val &lt; list2.val:
+        attach list1 to temp and advance list1
+    else:
+        attach list2 to temp and advance list2
+    update head and temp if needed
+return head</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists </t>
   </si>
 </sst>
 </file>
@@ -773,7 +838,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>41</v>
@@ -982,13 +1047,13 @@
         <v>40</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1002,16 +1067,16 @@
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
@@ -1026,17 +1091,17 @@
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -1044,24 +1109,69 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1583,6 +1693,9 @@
     <hyperlink ref="B8" r:id="rId7" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
     <hyperlink ref="B9" r:id="rId8" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{1F3F5FA3-D42F-B94E-82B0-24F817D80EBB}"/>
     <hyperlink ref="B10" r:id="rId9" display="https://neetcode.io/problems/find-minimum-in-rotated-sorted-array" xr:uid="{C6EDED79-6D8E-8843-99F1-ECBA49349E03}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://neetcode.io/problems/find-target-in-rotated-sorted-array" xr:uid="{510497A1-3ACB-1A40-A017-2B211237C3EC}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://neetcode.io/problems/reverse-a-linked-list" xr:uid="{F1D5B347-75DA-8F44-95F4-EBC12A45E144}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://neetcode.io/problems/merge-two-sorted-linked-lists" xr:uid="{00F47F2F-ECD3-3D47-AE36-BB55D6CA3DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9349056-AC9C-1D41-BBA4-5DD15E8B3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A605D3-E199-784C-8B94-51E0323E282C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -408,6 +408,78 @@
   </si>
   <si>
     <t>Merge Two Sorted Lists </t>
+  </si>
+  <si>
+    <t>Linked List Cycle </t>
+  </si>
+  <si>
+    <t>Store nodes in hashmap and keep checking, if you find a cycle the nodes would repeat. 
+initialize temp to head and dictionary d to empty
+while temp is not None:
+    if temp in d:
+        return True
+    add temp to d
+    move temp to temp.next
+return False</t>
+  </si>
+  <si>
+    <t>just read code. If you insist:
+initialize slow and fast to head
+while fast and fast.next:
+    move slow one step forward
+    if fast.next:
+        move fast two steps forward
+    else:
+        return False #fast has reached the end, so if won't move anymore, end it here
+    if slow equals fast:
+        return True
+return False</t>
+  </si>
+  <si>
+    <t>two pointers , one slow and one fast. If there's a cycle, slow will eventually catch up to fast. Kind of like how in circuit races, one car might just overlap the other, and actually be multiple laps ahead technically because it was too fast</t>
+  </si>
+  <si>
+    <t>Reorder List </t>
+  </si>
+  <si>
+    <t>Just store the nodes in a deque and manipulate accordingly.
+initialize deque d
+set temp to head
+while temp is not None:
+    add temp to d
+    move temp to temp.next
+while d is not empty:
+    if temp is None:
+        set temp to d.popleft()
+    else:
+        set temp.next to d.popleft()
+        move temp to temp.next
+    if d is not empty:
+        set temp.next to d.pop()
+        move temp to temp.next
+set temp.next to None</t>
+  </si>
+  <si>
+    <t>same as Merge Two sorted lists. Find halfway node of the linked list using fast and slow pointers, consider them as two separate linked lists. Reverse the second one because we want to traverse from the end and then merge them(instead of comparing their values just alternate between the two</t>
+  </si>
+  <si>
+    <t>Find the middle of the list:-
+Initialize slow and fast pointers at the head.
+Move slow by one step and fast by two steps until fast or fast.next is null.
+Reverse the second half of the list:-
+Initialize second as slow.next and prev as null.
+Set slow.next to null to split the list.
+While second is not null:
+Store second.next in a temporary variable tmp.
+Set second.next to prev.
+Move prev and second one step forward.
+Merge the two halves:-
+Initialize first as head and second as prev.
+While second is not null:
+Store first.next and second.next in tmp1 and tmp2.
+Set first.next to second.
+Set second.next to tmp1.
+Move first and second one step forward.</t>
   </si>
 </sst>
 </file>
@@ -837,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,12 +1248,48 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1696,6 +1804,8 @@
     <hyperlink ref="B11" r:id="rId10" display="https://neetcode.io/problems/find-target-in-rotated-sorted-array" xr:uid="{510497A1-3ACB-1A40-A017-2B211237C3EC}"/>
     <hyperlink ref="B12" r:id="rId11" display="https://neetcode.io/problems/reverse-a-linked-list" xr:uid="{F1D5B347-75DA-8F44-95F4-EBC12A45E144}"/>
     <hyperlink ref="B13" r:id="rId12" display="https://neetcode.io/problems/merge-two-sorted-linked-lists" xr:uid="{00F47F2F-ECD3-3D47-AE36-BB55D6CA3DE2}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://neetcode.io/problems/linked-list-cycle-detection" xr:uid="{C73BD96A-E0F9-074A-8348-9F342D5C5307}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A605D3-E199-784C-8B94-51E0323E282C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0A64-1BF2-2646-B106-925DE0964AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
   <si>
     <t>Category</t>
   </si>
@@ -480,6 +480,24 @@
 Set first.next to second.
 Set second.next to tmp1.
 Move first and second one step forward.</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List </t>
+  </si>
+  <si>
+    <t>traverse through linkedlist twice . First to find which number is at the index from the end. Traverse again to delete</t>
+  </si>
+  <si>
+    <t>two pointers, first move fast pointer by  n places, then traverse once to find and delete at slow pointer</t>
+  </si>
+  <si>
+    <t>1. Create a dummy node pointing to the head
+2. Initialize left and right pointers at dummy and head
+3. Move right pointer n steps forward
+4. While right is not null:
+   a. Move left and right pointers one step forward
+5. Set left.next to left.next.next to remove the nth node from end
+6. Return dummy.next as the new head of the list</t>
   </si>
 </sst>
 </file>
@@ -909,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1312,25 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1806,6 +1842,7 @@
     <hyperlink ref="B13" r:id="rId12" display="https://neetcode.io/problems/merge-two-sorted-linked-lists" xr:uid="{00F47F2F-ECD3-3D47-AE36-BB55D6CA3DE2}"/>
     <hyperlink ref="B14" r:id="rId13" display="https://neetcode.io/problems/linked-list-cycle-detection" xr:uid="{C73BD96A-E0F9-074A-8348-9F342D5C5307}"/>
     <hyperlink ref="B15" r:id="rId14" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://neetcode.io/problems/remove-node-from-end-of-linked-list" xr:uid="{3978F454-A1ED-2E47-B297-93196592774C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E0A64-1BF2-2646-B106-925DE0964AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6124A-7C19-1749-8AC7-7E99B5838BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -498,6 +498,17 @@
    a. Move left and right pointers one step forward
 5. Set left.next to left.next.next to remove the nth node from end
 6. Return dummy.next as the new head of the list</t>
+  </si>
+  <si>
+    <t>Refer Merge Two Sorted LinkedLists problem. Use that to merge every list in the array into one resultant array, one by one.
+    def mergeKLists(self, lists: List[Optional[ListNode]]) -&gt; Optional[ListNode]:
+        head=None
+        for i in range(0,len(lists)):
+            head=self.mergeTwoLists(head,lists[i]) #the code we wrote for Merge Two Sorted Lists problem
+        return head</t>
+  </si>
+  <si>
+    <t>merge sort type algorithm with mergeTwoSortedLists algorithm does is in O(nlogk) time</t>
   </si>
 </sst>
 </file>
@@ -928,7 +939,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,82 +1345,94 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>13</v>
       </c>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6124A-7C19-1749-8AC7-7E99B5838BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD00E91-71BD-E64A-AF81-2D2CA7603B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
   <si>
     <t>Category</t>
   </si>
@@ -508,7 +508,21 @@
         return head</t>
   </si>
   <si>
-    <t>merge sort type algorithm with mergeTwoSortedLists algorithm does is in O(nlogk) time</t>
+    <t>Merge K Sorted Lists </t>
+  </si>
+  <si>
+    <t>merge sort type algorithm with mergeTwoSortedLists algorithm that we wrote earlier. this does is in O(nlogk) time</t>
+  </si>
+  <si>
+    <t>1. If lists is empty, return None
+2. While more than one list in lists:
+   a. Initialize mergedLists as an empty list
+   b. For each pair of lists in lists:
+      i. Get l1 as the current list
+      ii. Get l2 as the next list if it exists, else None
+      iii. Merge l1 and l2, append result to mergedLists
+   c. Update lists to mergedLists
+3. Return the single remaining list in lists</t>
   </si>
 </sst>
 </file>
@@ -939,7 +953,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,8 +1363,14 @@
       <c r="A17" t="s">
         <v>57</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C17" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>77</v>
@@ -1866,6 +1886,7 @@
     <hyperlink ref="B14" r:id="rId13" display="https://neetcode.io/problems/linked-list-cycle-detection" xr:uid="{C73BD96A-E0F9-074A-8348-9F342D5C5307}"/>
     <hyperlink ref="B15" r:id="rId14" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
     <hyperlink ref="B16" r:id="rId15" display="https://neetcode.io/problems/remove-node-from-end-of-linked-list" xr:uid="{3978F454-A1ED-2E47-B297-93196592774C}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://neetcode.io/problems/merge-k-sorted-linked-lists" xr:uid="{9C3CE5D7-5815-8B46-A597-056735108E1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD00E91-71BD-E64A-AF81-2D2CA7603B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E76D-182A-794E-9C77-E9A4BCC7FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>Category</t>
   </si>
@@ -523,6 +523,118 @@
       iii. Merge l1 and l2, append result to mergedLists
    c. Update lists to mergedLists
 3. Return the single remaining list in lists</t>
+  </si>
+  <si>
+    <t>optimal 2:
+class Solution:
+    method __init__():
+        set results as empty set
+    method combinationSumHelper(candidates, target, result):
+        if target is 0:
+            add tuple(result) to results
+        elif candidates is empty:
+            return
+        else:
+            copy result to result1, result2
+            for i from 0 to length of candidates:
+                if candidates[i] &lt;= target:
+                    append candidates[i] to result1
+                    call combinationSumHelper(candidates[i:], target - candidates[i], result1)
+                    call combinationSumHelper(candidates[i+1:], target, result2)
+                break
+    method combinationSum(candidates, target):
+        sort candidates
+        call combinationSumHelper(candidates, target, [])
+        return list of lists from results</t>
+  </si>
+  <si>
+    <t>Combination Sum </t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finds all unique ways to sum a list of numbers to a target value. It tries different combinations by adding or skipping each number, and stores the valid results. Finally, it returns the unique combinations that match the target sum.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    method combinationSum(candidates, target):
+        initialize res as empty list
+        define dfs(i, cur, total):
+            if total equals target:
+                append copy of cur to res
+                return
+            if i is greater than or equal to length of candidates or total is greater than target:
+                return
+            append candidates[i] to cur
+            call dfs(i, cur, total + candidates[i])
+            remove last element from cur
+            call dfs(i + 1, cur, total)
+        call dfs(0, [], 0)
+        return res</t>
+  </si>
+  <si>
+    <t>Word Search </t>
+  </si>
+  <si>
+    <t>class Solution:
+    method exist(board, word):
+        set ROWS to number of rows in board
+        set COLS to number of columns in board
+        initialize path as empty set
+        define dfs(r, c, i):
+            if i equals length of word:
+                return True
+            if r or c out of bounds or word[i] != board[r][c] or (r, c) in path:
+                return False
+            add (r, c) to path
+            res = dfs in all 4 directions (r+1, c), (r-1, c), (r, c+1), (r, c-1)
+            remove (r, c) from path
+            return res
+        count frequency of first and last letters in word
+        if first letter frequency &gt; last letter frequency:
+            reverse word
+        for r from 0 to ROWS:
+            for c from 0 to COLS:
+                if dfs(r, c, 0):
+                    return True
+        return False</t>
+  </si>
+  <si>
+    <t>class Solution:
+    method __init__():
+        set flag to False
+    method existHelper(board, word, row, col, pointSet):
+        if word is empty:
+            set flag to True
+            return
+        if row or col out of bounds or (row, col) in pointSet:
+            return
+        if board[row][col] equals word[0]:
+            add (row, col) to pointSet
+            copy pointSet to set1, set2, set3, set4
+            call existHelper with updated word and sets in four directions
+        else:
+            return
+    method exist(board, word):
+        for each row in board:
+            for each col in row:
+                call existHelper(board, word, row, col, empty set)
+        return flag
+initialize Solution object
+board as given 2D list
+word as given string
+call exist method with board and word
+So above code is brute force. Let's compare with optimal
+**Optimal Solution**:
+- Time Complexity: \(O(n \cdot m \cdot 4^l)\) where \(n \times m\) is the size of the board and \(l\) is the length of the word.
+- Space Complexity: \(O(l)\) due to recursion stack and path set.
+**Brute Solution**:
+- Time Complexity: \(O(n \cdot m \cdot 4^l)\) due to exponential recursive calls.
+- Space Complexity: \(O(n \cdot m)\) due to multiple sets being copied in each recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code finds if a word exists in a grid by exploring all possible paths starting from each cell. It uses a helper function to recursively check each letter of the word, moving up, down, left, or right, while avoiding revisiting cells. It optimizes by reversing the word if needed to reduce search time. The function returns true if the word is found, otherwise false.</t>
   </si>
 </sst>
 </file>
@@ -952,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,12 +1495,48 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1887,6 +2035,8 @@
     <hyperlink ref="B15" r:id="rId14" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
     <hyperlink ref="B16" r:id="rId15" display="https://neetcode.io/problems/remove-node-from-end-of-linked-list" xr:uid="{3978F454-A1ED-2E47-B297-93196592774C}"/>
     <hyperlink ref="B17" r:id="rId16" display="https://neetcode.io/problems/merge-k-sorted-linked-lists" xr:uid="{9C3CE5D7-5815-8B46-A597-056735108E1F}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://neetcode.io/problems/combination-target-sum" xr:uid="{D707242E-14DF-5D4E-AFFE-C84916685B71}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/search-for-word" xr:uid="{BF516528-D0FF-A643-A8D9-B94190B50B3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E76D-182A-794E-9C77-E9A4BCC7FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97458717-99B3-E74D-932C-05805D2BA542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>Category</t>
   </si>
@@ -636,12 +636,151 @@
   <si>
     <t xml:space="preserve"> code finds if a word exists in a grid by exploring all possible paths starting from each cell. It uses a helper function to recursively check each letter of the word, moving up, down, left, or right, while avoiding revisiting cells. It optimizes by reversing the word if needed to reduce search time. The function returns true if the word is found, otherwise false.</t>
   </si>
+  <si>
+    <t>optimal 1:
+class Solution:
+    def containsDuplicate(self, nums: List[int]) -&gt; bool:
+        return len(set(nums))!=len(nums)</t>
+  </si>
+  <si>
+    <t>optimal 2:
+class Solution:
+    def containsDuplicate(self, nums: List[int]) -&gt; bool:
+        hashset = set()
+        for n in nums:
+            if n in hashset:
+                return True
+            hashset.add(n)
+        return False</t>
+  </si>
+  <si>
+    <t>store in hashmap and check. Alternate is set() and len() approach</t>
+  </si>
+  <si>
+    <t>Arrays &amp; Hashing</t>
+  </si>
+  <si>
+    <t>Contains Duplicate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from collections import Counter
+class Solution:
+    def isAnagram(self, s: str, t: str) -&gt; bool:
+        return Counter(s)==Counter(t)
+        </t>
+  </si>
+  <si>
+    <t>Count frequency of each character store in hashmap and compare</t>
+  </si>
+  <si>
+    <t>Valid Anagram </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def twoSum(self, nums: List[int], target: int) -&gt; List[int]:
+        h={}
+        for i in range(len(nums)):
+            key=target-nums[i]
+            if key in h:
+                return [h[key],i]
+            h[nums[i]]=i</t>
+  </si>
+  <si>
+    <t>as you iterate, store value and index in hash. Start of every iteration check if current number is in hashmap. If so, return those indices</t>
+  </si>
+  <si>
+    <t>Two Sum </t>
+  </si>
+  <si>
+    <t>Group Anagrams </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def groupAnagrams(self, strs: List[str]) -&gt; List[List[str]]:
+        ans = collections.defaultdict(list)
+        for s in strs:
+            count = [0] * 26
+            for c in s:
+                count[ord(c) - ord("a")] += 1
+            ans[tuple(count)].append(s)
+        return ans.values()</t>
+  </si>
+  <si>
+    <t>see optimal solution, more interesting and only slightly complex than brute force</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def groupAnagrams(self, strs: List[str]) -&gt; List[List[str]]:
+        d={}
+        for s in strs:
+            temp=str(sorted(list(s)))
+            if temp in d:
+                d[temp].append(s)
+            else:
+                d[temp]=[s]
+        return list(d.values())
+- **brute soln**: Time: \(O(N K \log K)\), Space: \(O(N K)\)
+- **optimal soln**: Time: \(O(N K)\), Space: \(O(N K)\)</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements </t>
+  </si>
+  <si>
+    <t>to do it in O(n) time instead of O(nlogn) that we need to sort it</t>
+  </si>
+  <si>
+    <t>optimal (second most efficient. compared to bucket sort solution)
+class Solution:
+    def topKFrequent(self, nums: List[int], k: int) -&gt; List[int]:
+        d=Counter(nums) #count frequency of elements
+        heapmax=[[-freq,num] for num,freq in d.items()] #heapq has only min heap so treating numbers as negative will make it act as a max heap
+        heapq.heapify(heapmax) #heapify creates heap. take O(n) time
+        list1=[] #to store k most freq elements
+        for i in range(k):
+            poping=heapq.heappop(heapmax) #extract max element
+            list1.append(poping[1]) #append value into the list
+        return list1
+brute force:
+from collections import Counter
+from collections import OrderedDict
+class Solution:
+    def topKFrequent(self, nums: List[int], k: int) -&gt; List[int]:
+        d = Counter(nums) 
+        d = OrderedDict(reversed(sorted(d.items(), key=lambda item: item[1])))
+        return list(d.keys())[:k]
+- **Code 1**: Time: \(O(N)\), Space: \(O(N)\)
+- **Code 2**: Time: \(O(N \log N)\), Space: \(O(N)\)
+Code 1 is more efficient in both time and space complexity.</t>
+  </si>
+  <si>
+    <t>most optimal is using bucket sort, second best optimal one is using max heap(which is written under brute force column of this row)
+code:
+class Solution:
+    method topKFrequent(nums, k):
+        initialize count as empty dictionary
+        initialize freq as list of empty lists with size len(nums) + 1
+        for each n in nums:
+            count[n] = 1 + count.get(n, 0)
+        for each (n, c) in count.items():
+            append n to freq[c]
+        initialize res as empty list
+        for i from len(freq) - 1 to 1 (inclusive):
+            for each n in freq[i]:
+                append n to res
+                if length of res equals k:
+                    return res
+Sure! Imagine you have a box of colored balls, and you want to find the k colors that appear the most often. Here's how you can think about the solution:
+1. **Counting Colors**: First, we go through all the balls and count how many there are of each color. It's like making a list of each color and noting down how many balls of that color you have.
+2. **Organizing by Frequency**: Next, we take this list and sort the colors into groups based on how many balls of each color there are. For example, we might have a group for colors that appear 3 times, another group for colors that appear 5 times, and so on.
+3. **Finding the Most Frequent Colors**: Finally, we look at the groups starting from the one with the most balls and pick the colors from those groups until we've found the k most frequent ones. It's like picking the most popular colors until you have the number you need.
+By organizing and counting the balls in this way, we can quickly find the most frequent colors without having to repeatedly compare every single ball to every other one.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -677,6 +816,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -705,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -727,6 +874,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1064,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,27 +1699,111 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2037,6 +2279,11 @@
     <hyperlink ref="B17" r:id="rId16" display="https://neetcode.io/problems/merge-k-sorted-linked-lists" xr:uid="{9C3CE5D7-5815-8B46-A597-056735108E1F}"/>
     <hyperlink ref="B18" r:id="rId17" display="https://neetcode.io/problems/combination-target-sum" xr:uid="{D707242E-14DF-5D4E-AFFE-C84916685B71}"/>
     <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/search-for-word" xr:uid="{BF516528-D0FF-A643-A8D9-B94190B50B3C}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://neetcode.io/problems/duplicate-integer" xr:uid="{3875B682-ED40-3242-9FA6-D90119162AF7}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://neetcode.io/problems/is-anagram" xr:uid="{2B57C655-1386-C947-858F-4317FDFB0D92}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://neetcode.io/problems/two-integer-sum" xr:uid="{527061F0-9AAF-1A40-A47D-95537613298E}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://neetcode.io/problems/anagram-groups" xr:uid="{70FC1425-DCD0-9543-BF04-BD7D6821FAF1}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{E953D456-BAC4-2F43-9A19-DF33BD3496C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97458717-99B3-E74D-932C-05805D2BA542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109EBBB-0830-D148-8A69-9F6CA63F14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
   <si>
     <t>Category</t>
   </si>
@@ -774,6 +774,76 @@
 2. **Organizing by Frequency**: Next, we take this list and sort the colors into groups based on how many balls of each color there are. For example, we might have a group for colors that appear 3 times, another group for colors that appear 5 times, and so on.
 3. **Finding the Most Frequent Colors**: Finally, we look at the groups starting from the one with the most balls and pick the colors from those groups until we've found the k most frequent ones. It's like picking the most popular colors until you have the number you need.
 By organizing and counting the balls in this way, we can quickly find the most frequent colors without having to repeatedly compare every single ball to every other one.</t>
+  </si>
+  <si>
+    <t>function productExceptSelf(nums):
+    initialize res as an array of ones with length of nums
+    # Calculate prefix products
+    for i from 1 to length of nums - 1:
+        res[i] = res[i-1] * nums[i-1]
+    initialize postfix as 1
+    # Calculate postfix products and final result
+    for i from length of nums - 1 to 0:
+        res[i] *= postfix
+        postfix *= nums[i]
+    return res</t>
+  </si>
+  <si>
+    <t>second most optimal solution:
+function productExceptSelf(nums):
+    initialize res as an array of ones with length of nums
+    initialize prefix as an empty array
+    initialize preprod as 1
+    # Calculate prefix products
+    for each element in nums:
+        preprod *= element
+        append preprod to prefix
+    initialize suffix as an empty array
+    initialize sufprod as 1
+    # Calculate suffix products
+    for each element in nums, reversed:
+        sufprod *= element
+        insert sufprod at the beginning of suffix
+    initialize result as an empty array
+    # Calculate the product of elements except self
+    for i from 0 to length of nums - 1:
+        if i &gt; 0:
+            pre = prefix[i-1]
+        else:
+            pre = 1
+        if i &lt; length of nums - 1:
+            suf = suffix[i+1]
+        else:
+            suf = 1
+        append pre * suf to result
+    return result</t>
+  </si>
+  <si>
+    <t>Imagine you have a list of numbers and want to create a new list where each position contains the product of all the original numbers except the one at that position. We first multiply numbers to the left, then to the right of each position, without including the number at that position itself. This way, everyone gets the total without counting themselves.</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self </t>
+  </si>
+  <si>
+    <t>function longestConsecutive(nums):
+    convert nums to a set called numSet
+    initialize longest to 0
+    for each n in numSet:
+        if (n - 1) is not in numSet:  # Check if n is the start of a sequence
+            initialize length to 1
+            while (n + length) is in numSet:
+                increment length by 1
+            longest = max(longest, length)
+    return longest</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t>To find the longest streak of consecutive numbers in a list, we first put all the numbers into a set for easy checking. Then, for each number, we see if it's the start of a new streak by checking if there's no number before it. If it is, we count how long the streak goes by checking consecutive numbers. We keep track of the longest streak found.</t>
+  </si>
+  <si>
+    <t>brute force would have been to sort it. Which the problem discourages</t>
   </si>
 </sst>
 </file>
@@ -852,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -874,17 +944,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,7 +1283,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,23 +1844,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1808,12 +1868,48 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2284,6 +2380,8 @@
     <hyperlink ref="B22" r:id="rId21" display="https://neetcode.io/problems/two-integer-sum" xr:uid="{527061F0-9AAF-1A40-A47D-95537613298E}"/>
     <hyperlink ref="B23" r:id="rId22" display="https://neetcode.io/problems/anagram-groups" xr:uid="{70FC1425-DCD0-9543-BF04-BD7D6821FAF1}"/>
     <hyperlink ref="B24" r:id="rId23" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{E953D456-BAC4-2F43-9A19-DF33BD3496C6}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109EBBB-0830-D148-8A69-9F6CA63F14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288CD6C-202F-204B-8ED7-A9A7EB93CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>Category</t>
   </si>
@@ -844,6 +844,170 @@
   </si>
   <si>
     <t>brute force would have been to sort it. Which the problem discourages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def rotate(self, matrix: List[List[int]]) -&gt; None:
+        #transpose the matrix then reverse the rows
+        for i in range(len(matrix)):
+            for j in range(i,len(matrix[0])):
+                matrix[i][j],matrix[j][i]=matrix[j][i],matrix[i][j]
+        for row in matrix:
+            row.reverse()
+        return matrix
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transpose the matrix then reverse the rows</t>
+  </si>
+  <si>
+    <t>manually rotate every element until it reaches its place. Rotate every square in matrix. Outermost to innermost. This is the obvious one which comes to mind
+alternative is: To rotate the matrix 90 degrees clockwise, first flip it upside down, then swap elements along the diagonal. This effectively rotates all elements to their correct positions in a clockwise direction.</t>
+  </si>
+  <si>
+    <t>Rotate Image </t>
+  </si>
+  <si>
+    <t>Math &amp; Geometry</t>
+  </si>
+  <si>
+    <t>### Pseudocode
+1. **Initialize Result and Boundaries**:
+   - `res = []` (to store the elements in spiral order)
+   - `left = 0`, `right = number of columns`
+   - `top = 0`, `bottom = number of rows`
+2. **Loop While There Are Layers to Traverse**:
+   - While `left &lt; right` and `top &lt; bottom`:
+     - **Traverse Top Row**:
+       - For `i` from `left` to `right` (exclusive):
+         - Append `matrix[top][i]` to `res`
+       - Increment `top`
+     - **Traverse Right Column**:
+       - For `i` from `top` to `bottom` (exclusive):
+         - Append `matrix[i][right - 1]` to `res`
+       - Decrement `right`
+     - **Check If Boundaries Overlap**:
+       - If not `(left &lt; right and top &lt; bottom)`, break loop
+     - **Traverse Bottom Row**:
+       - For `i` from `right - 1` to `left - 1` (inclusive, backwards):
+         - Append `matrix[bottom - 1][i]` to `res`
+       - Decrement `bottom`
+     - **Traverse Left Column**:
+       - For `i` from `bottom - 1` to `top - 1` (inclusive, backwards):
+         - Append `matrix[i][left]` to `res`
+       - Increment `left`
+3. **Return Result**:
+   - Return `res`</t>
+  </si>
+  <si>
+    <t>The function collects numbers from a matrix by spiraling inwards. It starts at the top-left, moves right across the top row, then down the right column, left across the bottom row, and up the left column. This process repeats, moving inward layer by layer, until all elements are gathered.</t>
+  </si>
+  <si>
+    <t>One-line solution-more optimal but I might not be able to remember:
+class Solution:
+    def spiralOrder(self, matrix):
+        return matrix and [*matrix.pop(0)] + self.spiralOrder([*zip(*matrix)][::-1])</t>
+  </si>
+  <si>
+    <t>Spiral Matrix </t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes </t>
+  </si>
+  <si>
+    <t>### Pseudocode
+1. **Initialize Sets**:
+   - `rowSet = set()`, `colSet = set()`
+2. **Identify Zero Positions**:
+   - For each cell `(i, j)` in the matrix:
+     - If `matrix[i][j] == 0`, add `i` to `rowSet` and `j` to `colSet`.
+3. **Set Rows to Zero**:
+   - For each `row` in `rowSet`:
+     - Set all elements in the row to 0.
+4. **Set Columns to Zero**:
+   - For each `col` in `colSet`:
+     - Set all elements in the column to 0.
+5. **Return Matrix**:
+   - Return the modified matrix.
+### Big Idea
+The function finds cells with zeros and sets the entire row and column of those cells to zero, modifying the matrix in place.
+Alternatively, a worse solution, of space O(mn) is possible where we have a copy of the matrix and during traversal of actualy matrix we update the copy of the matrix every time we encounter a zero. we don't prefer this because of m+n previous soln</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use some space to mark the rows and columns that need to be made zero. Then iterate to mark it.</t>
+  </si>
+  <si>
+    <t>First read the brute force solution. Instead of brute force solution, we'll mark it in place in the first row, first column and one extra space for the overlap. Since we see these cells first, they can be used for marking and modified without affecting entire matrix. see timestamp 11:10 onwards in video https://www.youtube.com/watch?v=T41rL0L3Pnw&amp;ab_channel=NeetCode (also timestamp 14:40, which says for colset use first col, for rowset use first row, but for rowset 0th position since it is used by column, use the boolean single space/variable we declared, to avoid overlap
+class Solution:
+    def setZeroes(self, matrix: List[List[int]]) -&gt; None:
+        # O(1)
+        ROWS, COLS = len(matrix), len(matrix[0])
+        rowZero = False
+        # determine which rows/cols need to be zero
+        for r in range(ROWS):
+            for c in range(COLS):
+                if matrix[r][c] == 0:
+                    matrix[0][c] = 0
+                    if r &gt; 0:
+                        matrix[r][0] = 0
+                    else:
+                        rowZero = True
+        for r in range(1, ROWS):
+            for c in range(1, COLS):
+                if matrix[0][c] == 0 or matrix[r][0] == 0:
+                    matrix[r][c] = 0
+        if matrix[0][0] == 0:
+            for r in range(ROWS):
+                matrix[r][0] = 0
+        if rowZero:
+            for c in range(COLS):
+                matrix[0][c] = 0</t>
+  </si>
+  <si>
+    <t># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:        
+    def invertTree(self, root: Optional[TreeNode]) -&gt; Optional[TreeNode]:
+        if root:
+            #invert
+            root.left,root.right=root.right,root.left
+            #pass root.left to the invertTree method
+            self.invertTree(root.left)
+            #passroot.right to the invertTree method
+            self.invertTree(root.right)
+        return root
+of
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:        
+    def invertTree(self, root: Optional[TreeNode]) -&gt; Optional[TreeNode]:
+        if root:
+            #invert
+            temp=root.left
+            root.left=root.right
+            root.right=temp
+            #pass root.left to the invertTree method
+            self.invertTree(root.left)
+            #passroot.right to the invertTree method
+            self.invertTree(root.right)
+        return root</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree </t>
+  </si>
+  <si>
+    <t>just invert every node and call the function on the same node. Finally return root</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1447,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1914,22 +2078,91 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2382,6 +2615,10 @@
     <hyperlink ref="B24" r:id="rId23" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{E953D456-BAC4-2F43-9A19-DF33BD3496C6}"/>
     <hyperlink ref="B25" r:id="rId24" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
     <hyperlink ref="B26" r:id="rId25" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://neetcode.io/problems/rotate-matrix" xr:uid="{62C51741-11CA-F748-A94E-19EA68262331}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288CD6C-202F-204B-8ED7-A9A7EB93CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF05997-8914-ED4A-AE01-CDCD48D1938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="143">
   <si>
     <t>Category</t>
   </si>
@@ -1008,6 +1008,88 @@
   </si>
   <si>
     <t>just invert every node and call the function on the same node. Finally return root</t>
+  </si>
+  <si>
+    <t>count every node and at node level, check max of left and right subtree. Code is self explanatory</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive solution:
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def maxDepth(self, root: Optional[TreeNode]) -&gt; int:
+        if root:
+            return 1+max(self.maxDepth(root.left),self.maxDepth(root.right))
+        return 0
+read the other two solutions later and document for learning purposes:
+https://youtube.com/watch?v=hTM3phVI6YQ&amp;ab_channel=NeetCode
+</t>
+  </si>
+  <si>
+    <t>Same Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def isSameTree(self, p: Optional[TreeNode], q: Optional[TreeNode]) -&gt; bool:
+        if p is None or q is None:
+            return p == q
+        return (p.val== q.val) and self.isSameTree(p.left, q.left) and self.isSameTree(p.right, q.right)
+or
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def isSameTree(self, p: Optional[TreeNode], q: Optional[TreeNode]) -&gt; bool:
+            if p and q:
+                if p.val == q.val:
+                    return True and self.isSameTree(p.left,q.left) and self.isSameTree(p.right,q.right)
+                else:
+                    return False
+            elif (p and not q) or (q and not p):
+                return False 
+            return True
+            </t>
+  </si>
+  <si>
+    <t>most important but not only line is : return (p.val== q.val) and self.isSameTree(p.left, q.left) and self.isSameTree(p.right, q.right)</t>
+  </si>
+  <si>
+    <t># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def isSameTree(self, p: Optional[TreeNode], q: Optional[TreeNode]) -&gt; bool:
+        if p is None or q is None:
+            return p == q
+        return (p.val== q.val) and self.isSameTree(p.left, q.left) and self.isSameTree(p.right, q.right)
+    def isSubtree(self, root: Optional[TreeNode], subRoot: Optional[TreeNode]) -&gt; bool:
+        if root:
+            return self.isSameTree(root,subRoot) or self.isSubtree(root.left, subRoot) or self.isSubtree(root.right, subRoot)</t>
+  </si>
+  <si>
+    <t>see Same Tree problem above. Check this on every root node with subtree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree </t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,91 +2249,136 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>13</v>
       </c>
@@ -2619,6 +2746,9 @@
     <hyperlink ref="B28" r:id="rId27" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
     <hyperlink ref="B29" r:id="rId28" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
     <hyperlink ref="B30" r:id="rId29" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF05997-8914-ED4A-AE01-CDCD48D1938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4412E90E-9AE5-424E-B2CC-A07830D748AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="152">
   <si>
     <t>Category</t>
   </si>
@@ -1090,6 +1090,79 @@
   </si>
   <si>
     <t>Subtree of Another Tree </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def lowestCommonAncestor(self, root: 'TreeNode', p: 'TreeNode', q: 'TreeNode') -&gt; 'TreeNode':
+        while root:
+            if p.val&lt;root.val and q.val&lt;root.val:
+                root=root.left
+            elif p.val&gt;root.val and q.val&gt;root.val:
+                root=root.right
+            else:
+                return root</t>
+  </si>
+  <si>
+    <t>finding the lowest common ancestor (LCA) in a binary search tree (BST):
+While the root is not null:
+If both p and q are less than root, move to the left child.
+Else if both p and q are greater than root, move to the right child.
+Otherwise, the root is the LCA; return root.</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree </t>
+  </si>
+  <si>
+    <t>how to do this for any tree?</t>
+  </si>
+  <si>
+    <t>Understand the one line solution</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal </t>
+  </si>
+  <si>
+    <t>Second-most optimal(easy to remember) (same time and space complexity as optimal one):
+Here is the pseudocode for Code 1, which performs a level-order traversal of a binary tree using a depth-first search (DFS) approach and stores the node values at each level:
+1. **Initialization:**
+   - Initialize `levels` as a dictionary to store nodes at each level.
+   - Set `maxDepth` to 0.
+2. **Define `traverse(root, depth)`:**
+   - If `root` is not null:
+     - Update `maxDepth` to be the maximum of `maxDepth` and `depth`.
+     - Append `root.val` to `levels[depth]`.
+     - Recursively call `traverse(root.left, depth + 1)`.
+     - Recursively call `traverse(root.right, depth + 1)`.
+3. **Define `levelOrder(root)`:**
+   - Initialize `results` as an empty list.
+   - If `root` is not null:
+     - Call `traverse(root, 0)` to start the traversal from the root.
+     - For each level from 0 to `maxDepth`:
+       - Append `levels[i]` to `results`.
+   - Return `results`.</t>
+  </si>
+  <si>
+    <t>performs a level-order traversal of a binary tree using a breadth-first search (BFS) approach:
+1. **Initialization:**
+   - Initialize `res` as an empty list to store the final result.
+   - Initialize `q` as a queue (deque) to hold nodes to be processed.
+2. **Start BFS:**
+   - If `root` is not null:
+     - Append `root` to `q`.
+3. **While `q` is not empty:**
+   - Initialize `val` as an empty list to store values of nodes at the current level.
+   - For each node in the current level (iterate `len(q)` times):
+     - Pop the leftmost node from `q`.
+     - Append the node's value to `val`.
+     - If the node has a left child, append it to `q`.
+     - If the node has a right child, append it to `q`.
+   - Append `val` to `res`.
+4. **Return `res`.**
+This pseudocode captures the essence of level-order traversal using a queue to manage nodes at each level.</t>
+  </si>
+  <si>
+    <t>just see second-most optimal solution code:
+visiting each level of a tree one by one and recording the values of the nodes at each level. It uses a method to go through the tree from top to bottom, keeping track of which level each node is on. The final output is a list of lists, where each inner list contains the values of the nodes at that level of the tree.</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1602,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1958,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1981,7 +2054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2004,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2027,7 +2100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -2047,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2090,7 +2163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2113,7 +2186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2136,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -2159,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -2182,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -2204,8 +2277,11 @@
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -2228,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -2248,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -2268,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -2288,7 +2364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -2308,77 +2384,113 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>13</v>
       </c>
@@ -2749,6 +2861,8 @@
     <hyperlink ref="B31" r:id="rId30" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
     <hyperlink ref="B32" r:id="rId31" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
     <hyperlink ref="B33" r:id="rId32" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4412E90E-9AE5-424E-B2CC-A07830D748AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAAAE0-FC4D-454C-AEE8-144BDA2CE4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
   <si>
     <t>Category</t>
   </si>
@@ -1163,6 +1163,90 @@
   <si>
     <t>just see second-most optimal solution code:
 visiting each level of a tree one by one and recording the values of the nodes at each level. It uses a method to go through the tree from top to bottom, keeping track of which level each node is on. The final output is a list of lists, where each inner list contains the values of the nodes at that level of the tree.</t>
+  </si>
+  <si>
+    <t># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def isValidBST(self, root: TreeNode) -&gt; bool:
+        def valid(node, left, right):
+            if not node:
+                return True
+            if not (left &lt; node.val &lt; right):
+                return False
+            return valid(node.left, left, node.val) and valid(
+                node.right, node.val, right
+            )
+        return valid(root, float("-inf"), float("inf"))</t>
+  </si>
+  <si>
+    <t>The code checks if a binary tree is a valid binary search tree (BST). A BST is a tree where each node has at most two children, and for every node, all values in its left subtree are smaller, and all values in its right subtree are larger. The function starts at the root and verifies these rules recursively for every node. It uses minimum and maximum bounds to ensure each node's value is within the valid range. If all nodes follow the BST rules, the tree is considered valid.</t>
+  </si>
+  <si>
+    <t>brute force(works for any treee:
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+#use maxheap, compare root and if value&lt;root, pop root and push this value in
+#return root after traversal is done
+import heapq
+class Solution:
+    def __init__(self):
+        self.smallnums=[] #empty minheap, but we need maxheap, so we insert negatives
+    def traverse(self, root, k):
+        if root:
+            self.traverse(root.left, k)
+            if len(self.smallnums)&lt;k:
+                heapq.heappush(self.smallnums,-1*root.val)
+#            elif heapq.nsmallest(1,self.smallnums)[0]*-1 &gt; root.val:
+            elif self.smallnums[0]*-1 &gt; root.val:
+                heapq.heappop(self.smallnums)
+                heapq.heappush(self.smallnums,-1*root.val)
+            else:
+                pass
+                #do nothing
+            self.traverse(root.right, k)
+    def kthSmallest(self, root: Optional[TreeNode], k: int) -&gt; int:
+        self.traverse(root,k)
+        return self.smallnums[0]*-1</t>
+  </si>
+  <si>
+    <t>To find the kth smallest element in a binary search tree (BST), we leverage the property that an in-order traversal of a BST visits nodes in ascending order. We use a stack to help with this traversal:
+1. Start at the root and push all the left children onto the stack until there are no more left nodes.
+2. Pop the top node from the stack, which is the next smallest element in the BST.
+3. Decrease k by 1, as we've found the next smallest element.
+4. If k becomes 0, the current node's value is the kth smallest, so we return it.
+5. If not, move to the right child of the current node and repeat the process.
+By maintaining this in-order traversal using the stack, we efficiently find the kth smallest element without visiting all nodes, as we stop once we reach the desired element.
+FUNCTION kthSmallest(root, k)
+    INITIALIZE stack AS empty list
+    SET curr TO root
+    WHILE stack IS NOT empty OR curr IS NOT NULL
+        WHILE curr IS NOT NULL
+            ADD curr TO stack
+            SET curr TO curr.left
+        SET curr TO stack.pop()
+        DECREMENT k BY 1
+        IF k EQUALS 0
+            RETURN curr.val
+        SET curr TO curr.right
+END FUNCTION</t>
+  </si>
+  <si>
+    <t>travers left subtree to find kth smalles value. Otherwise find smallest and go right. Continue same process for its left subtree</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element In a Bst </t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree </t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2431,12 +2515,45 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2863,6 +2980,8 @@
     <hyperlink ref="B33" r:id="rId32" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
     <hyperlink ref="B34" r:id="rId33" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
     <hyperlink ref="B35" r:id="rId34" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
+    <hyperlink ref="B36" r:id="rId36" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AlgoSheet/Algosheet.xlsx
+++ b/AlgoSheet/Algosheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/AlgoSheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAAAE0-FC4D-454C-AEE8-144BDA2CE4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA9A243-FDF7-A644-9734-609E5466B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
   <si>
     <t>Category</t>
   </si>
@@ -1247,6 +1247,30 @@
   </si>
   <si>
     <t>Validate Binary Search Tree </t>
+  </si>
+  <si>
+    <t>Construct Binary Tree From Preorder And Inorder Traversal </t>
+  </si>
+  <si>
+    <t>use 2 facts. First value in preorder is always root, so construct that and give it its relevant part of preorder and inorder.
+Second is preorder and inorder consist of unique values. This is  a given contraint which is useful to implement</t>
+  </si>
+  <si>
+    <t># Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def buildTree(self, preorder: List[int], inorder: List[int]) -&gt; Optional[TreeNode]:
+        if not preorder:#constraint given : Each value of inorder also appears in preorder. so we can just check one
+            return None
+        root = TreeNode(preorder[0])
+        mid = inorder.index(preorder[0])
+        root.left = self.buildTree(preorder[1:mid+1], inorder[:mid])
+        root.right = self.buildTree(preorder[mid+1:], inorder[mid+1:])
+        return root</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1710,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:G37"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2558,7 +2582,22 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2982,6 +3021,7 @@
     <hyperlink ref="B35" r:id="rId34" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
     <hyperlink ref="B37" r:id="rId35" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
     <hyperlink ref="B36" r:id="rId36" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
